--- a/data.xlsx
+++ b/data.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="6">
   <si>
     <t>Sreeram</t>
   </si>
@@ -33,6 +33,15 @@
   </si>
   <si>
     <t>HOD</t>
+  </si>
+  <si>
+    <t>Kunju</t>
+  </si>
+  <si>
+    <t>Assistand HOD</t>
+  </si>
+  <si>
+    <t>23-23-2332</t>
   </si>
 </sst>
 </file>
@@ -352,10 +361,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:O2"/>
+  <dimension ref="A2:O3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="P3" sqref="P3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -412,6 +421,53 @@
         <v>123</v>
       </c>
     </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>1012</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="1">
+        <v>490557</v>
+      </c>
+      <c r="F3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3">
+        <v>565667</v>
+      </c>
+      <c r="H3">
+        <v>766565</v>
+      </c>
+      <c r="I3">
+        <v>76575</v>
+      </c>
+      <c r="J3">
+        <v>756</v>
+      </c>
+      <c r="K3">
+        <v>6555</v>
+      </c>
+      <c r="L3">
+        <v>65</v>
+      </c>
+      <c r="M3">
+        <v>765</v>
+      </c>
+      <c r="N3">
+        <v>65</v>
+      </c>
+      <c r="O3">
+        <v>766</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
